--- a/replication/results/figureA2_any_evidence.xlsx
+++ b/replication/results/figureA2_any_evidence.xlsx
@@ -34,49 +34,49 @@
     <t>total_dof</t>
   </si>
   <si>
+    <t>(0.59)</t>
+  </si>
+  <si>
+    <t>(0.37)</t>
+  </si>
+  <si>
     <t>(0.56)</t>
   </si>
   <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>(0.69)</t>
-  </si>
-  <si>
-    <t>(0.44)</t>
-  </si>
-  <si>
-    <t>(0.41)</t>
-  </si>
-  <si>
-    <t>(0.66)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>(0.71)</t>
+  </si>
+  <si>
+    <t>(0.53)</t>
+  </si>
+  <si>
+    <t>(0.77)</t>
+  </si>
+  <si>
+    <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(0.58)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.93)</t>
+  </si>
+  <si>
+    <t>(0.65)</t>
+  </si>
+  <si>
+    <t>(0.84)</t>
   </si>
   <si>
     <t>(0.72)</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>(0.59)</t>
-  </si>
-  <si>
-    <t>(0.34)</t>
-  </si>
-  <si>
-    <t>(0.87)</t>
-  </si>
-  <si>
-    <t>(0.64)</t>
-  </si>
-  <si>
-    <t>(0.95)</t>
-  </si>
-  <si>
-    <t>(0.86)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -553,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -614,13 +614,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
